--- a/Excel2Json/Test/attribute.xlsx
+++ b/Excel2Json/Test/attribute.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>A</t>
   </si>
@@ -64,22 +64,6 @@
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ype</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -148,14 +132,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>hp</t>
   </si>
   <si>
@@ -172,6 +148,14 @@
   </si>
   <si>
     <t>crit_chance</t>
+  </si>
+  <si>
+    <t>string;32</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[10]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -628,7 +612,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D10"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -644,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>2</v>
@@ -655,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -663,16 +647,16 @@
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
@@ -681,68 +665,68 @@
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
